--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_6.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_6.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999876985036831</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6753980607757584</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999737141391525</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999856028187857</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999841402607238</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G2" t="n">
-        <v>7.302699610671344e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1926977331971665</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I2" t="n">
-        <v>1.059489464030443e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J2" t="n">
-        <v>1.790613131778342e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K2" t="n">
-        <v>1.425051297904392e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001043125886463404</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002702350756410304</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000007979348962</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002817395422747937</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P2" t="n">
-        <v>145.6545329369833</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.0059582539436</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_1</t>
+          <t>model_4_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999987406058398</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6752645662568504</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999694717192497</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999834929753691</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999817285358453</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G3" t="n">
-        <v>7.47630776490331e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1927769813102533</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I3" t="n">
-        <v>1.230486305834559e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J3" t="n">
-        <v>2.053019589786823e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K3" t="n">
-        <v>1.641752947810692e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001041082354143818</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00273428377548917</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000008169043201</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002850687896559452</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P3" t="n">
-        <v>145.6075430043266</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q3" t="n">
-        <v>219.9589683212868</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_2</t>
+          <t>model_4_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999869284480677</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6751376147989152</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999651648989847</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999981345873492</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999792766751031</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G4" t="n">
-        <v>7.759837888663784e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H4" t="n">
-        <v>0.192852345179701</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I4" t="n">
-        <v>1.404078896953127e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J4" t="n">
-        <v>2.320059974935509e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K4" t="n">
-        <v>1.862060941035755e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001041121653020009</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002785648557995747</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000008478844497</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002904239384197092</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P4" t="n">
-        <v>145.5330982292469</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q4" t="n">
-        <v>219.8845235462072</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_3</t>
+          <t>model_4_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.99998631829332</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6750174516779489</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999608842779771</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999791975520591</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999768296574726</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G5" t="n">
-        <v>8.122052104211981e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1929236791990832</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I5" t="n">
-        <v>1.576615489277568e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J5" t="n">
-        <v>2.587252039249333e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K5" t="n">
-        <v>2.081933764263451e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001042689981444329</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002849921420708294</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000008874620549</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00297124847573848</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P5" t="n">
-        <v>145.4418554270519</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q5" t="n">
-        <v>219.7932807440122</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_4</t>
+          <t>model_4_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999856222665623</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.674905281140906</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999567030642487</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999770856276299</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999744302202904</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G6" t="n">
-        <v>8.535243654342327e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1929902684753868</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I6" t="n">
-        <v>1.745145328110266e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J6" t="n">
-        <v>2.849917317955459e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K6" t="n">
-        <v>2.297531323032863e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0010451667400383</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002921513931909675</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000009326097365</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003045888828358632</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P6" t="n">
-        <v>145.3426133089156</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q6" t="n">
-        <v>219.6940386258759</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_5</t>
+          <t>model_4_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999848567091686</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6748000192987362</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999952596508654</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999750055029908</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999720693975843</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G7" t="n">
-        <v>8.98971159363784e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1930527564519735</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I7" t="n">
-        <v>1.910665963377433e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J7" t="n">
-        <v>3.108627577916524e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K7" t="n">
-        <v>2.509659240331606e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00104957106354414</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002998284775273663</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000009822675134</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00312592796546218</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P7" t="n">
-        <v>145.2388595815841</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q7" t="n">
-        <v>219.5902848985443</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_6</t>
+          <t>model_4_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999840571139135</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6747019653921761</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999486446226776</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999729874486423</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999697862737034</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G8" t="n">
-        <v>9.464385877775367e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1931109654866158</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I8" t="n">
-        <v>2.069952417006892e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35961800188815e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7148056549818e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001069474959236909</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003076424203157842</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000010341331516</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003207393950562303</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P8" t="n">
-        <v>145.1359493177943</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q8" t="n">
-        <v>219.4873746347545</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_7</t>
+          <t>model_4_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.99998323283804</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6746101233412733</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999448145309903</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999710292870743</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999675722343105</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G9" t="n">
-        <v>9.953711643143612e-06</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1931654868954018</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I9" t="n">
-        <v>2.224329776476709e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J9" t="n">
-        <v>3.60315941222324e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K9" t="n">
-        <v>2.913744594349974e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00108907764064161</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003154950339251572</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000010875996947</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003289263106841054</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P9" t="n">
-        <v>145.0351300937806</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q9" t="n">
-        <v>219.3865554107408</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_8</t>
+          <t>model_4_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999982408644251</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6745254660605744</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999411573842433</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999691561246161</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999654554089019</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G10" t="n">
-        <v>1.044298867958313e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1932157431142287</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I10" t="n">
-        <v>2.371736341146585e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J10" t="n">
-        <v>3.836129272481904e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K10" t="n">
-        <v>3.10394852794243e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001108171954599397</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003231561337741112</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000011410609134</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003369135594142923</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P10" t="n">
-        <v>144.9391594889741</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q10" t="n">
-        <v>219.2905848059344</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_9</t>
+          <t>model_4_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999981582411104</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6744467802025913</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999376380881291</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999673446842678</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999634125689321</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G11" t="n">
-        <v>1.093347636707351e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1932624544385796</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I11" t="n">
-        <v>2.513586637600244e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J11" t="n">
-        <v>4.061422600864119e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K11" t="n">
-        <v>3.287504619232182e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00112724498858554</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003306580766754913</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000011946544149</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003447348755561468</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P11" t="n">
-        <v>144.8473624979472</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.1987878149074</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_10</t>
+          <t>model_4_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999980790675042</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6743745124033764</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999343612276373</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999656507315575</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999615052414016</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G12" t="n">
-        <v>1.140348509472403e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1933053557259999</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6456652172689e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J12" t="n">
-        <v>4.272103700343305e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K12" t="n">
-        <v>3.458884458806103e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001144580698100837</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003376904661775934</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000012460102675</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003520666484384065</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P12" t="n">
-        <v>144.7631830784402</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.1146083954005</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_11</t>
+          <t>model_4_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999800304158194</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6743079539361245</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999312903836914</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999640587660429</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999597148071799</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G13" t="n">
-        <v>1.185480781073688e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1933448677073367</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I13" t="n">
-        <v>2.769440003461292e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J13" t="n">
-        <v>4.470100399385348e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K13" t="n">
-        <v>3.619761038612029e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001160868652816374</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003443081150762624</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000012953243793</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003589660243511136</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P13" t="n">
-        <v>144.6855541004823</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.0369794174426</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999793039702084</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6742468250923642</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999284157946253</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999625639088112</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999580353942719</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G14" t="n">
-        <v>1.228605730619908e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1933811564296214</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I14" t="n">
-        <v>2.885304454189872e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J14" t="n">
-        <v>4.656019500440884e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K14" t="n">
-        <v>3.770661977315379e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00117615105079584</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003505147258846493</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000013424451757</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003654368634310691</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P14" t="n">
-        <v>144.6140909817676</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.9655162987279</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_13</t>
+          <t>model_4_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999786198409427</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6741910569633049</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999257640324332</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999611731717019</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999564781212297</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G15" t="n">
-        <v>1.269218599117392e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1934142628000887</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I15" t="n">
-        <v>2.992187546965902e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J15" t="n">
-        <v>4.828988923680697e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K15" t="n">
-        <v>3.910588235323299e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001190347065787435</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003562609435676878</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00001386821128</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00371427709497185</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P15" t="n">
-        <v>144.5490480602907</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.900473377251</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_14</t>
+          <t>model_4_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999779693887865</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.674139867793647</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999923271637699</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999959870086116</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999550163779818</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G16" t="n">
-        <v>1.307832248918493e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1934446509024546</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I16" t="n">
-        <v>3.092647104917882e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J16" t="n">
-        <v>4.991056909575155e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K16" t="n">
-        <v>4.041930817723211e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001203715906336754</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003616396340168612</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000014290126193</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003770353819342038</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P16" t="n">
-        <v>144.4891089404446</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q16" t="n">
-        <v>218.8405342574048</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_15</t>
+          <t>model_4_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999773600189086</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6740931805322375</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999209719764233</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999586599711371</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999536639607534</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G17" t="n">
-        <v>1.34400707721527e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H17" t="n">
-        <v>0.193472366477612</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I17" t="n">
-        <v>3.185338263354485e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J17" t="n">
-        <v>5.141561910509785e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K17" t="n">
-        <v>4.163450086932135e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001216075573540059</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003666070208295621</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00001468539314</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003822142406874297</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P17" t="n">
-        <v>144.4345399141959</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q17" t="n">
-        <v>218.7859652311562</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_16</t>
+          <t>model_4_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999767972580342</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.67405084926529</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999188736180407</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999575491788611</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999524245564753</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G18" t="n">
-        <v>1.377414993712779e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1934974961462876</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I18" t="n">
-        <v>3.269915618875893e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J18" t="n">
-        <v>5.279713900566687e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K18" t="n">
-        <v>4.27481475972129e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001227337466665102</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003711354191818371</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000015050427221</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003869354223326379</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P18" t="n">
-        <v>144.3854338307656</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.7368591477259</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_17</t>
+          <t>model_4_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999762683145171</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6740120031996942</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999169136949126</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999565163104327</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999512706475864</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G19" t="n">
-        <v>1.408815365805197e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1935205568488879</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I19" t="n">
-        <v>3.34891314216472e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J19" t="n">
-        <v>5.408174308470369e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K19" t="n">
-        <v>4.378497382188608e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001237810666843286</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003753418929196682</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000015393525719</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003913209743660896</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P19" t="n">
-        <v>144.3403525596262</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q19" t="n">
-        <v>218.6917778765865</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_18</t>
+          <t>model_4_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999757875038847</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6739769458552913</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999151560188785</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999555781806773</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999502266364545</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G20" t="n">
-        <v>1.437358361940044e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1935413684029239</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I20" t="n">
-        <v>3.419758805169682e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J20" t="n">
-        <v>5.524851832657916e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4723053189138e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001247277136145862</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003791250930682436</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000015705402886</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003952652331772937</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P20" t="n">
-        <v>144.3002370139193</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q20" t="n">
-        <v>218.6516623308796</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_19</t>
+          <t>model_4_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999753386461617</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6739450493991754</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999135151394742</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999547116819734</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999492584636968</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G21" t="n">
-        <v>1.464004495342535e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1935603035171294</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I21" t="n">
-        <v>3.485896811859627e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J21" t="n">
-        <v>5.632620425329862e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K21" t="n">
-        <v>4.559298920822829e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00125601557518466</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00382623116832025</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000015996553841</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003989121750546068</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P21" t="n">
-        <v>144.2634999576933</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.6149252746536</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_20</t>
+          <t>model_4_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999749245681193</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6739160295880902</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999120170511068</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999539137320268</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999948370656224</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G22" t="n">
-        <v>1.488585956662354e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1935775309305802</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I22" t="n">
-        <v>3.546279420240298e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J22" t="n">
-        <v>5.731863439052122e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K22" t="n">
-        <v>4.63907142964621e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001264178113753407</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003858219740582894</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000016265145004</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004022472142555406</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P22" t="n">
-        <v>144.2301976359879</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q22" t="n">
-        <v>218.5816229529482</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_21</t>
+          <t>model_4_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999745471403743</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6738898087789573</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999910656774005</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999531895600831</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999475643706094</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G23" t="n">
-        <v>1.510991698014216e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1935930967355614</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I23" t="n">
-        <v>3.601107347153857e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J23" t="n">
-        <v>5.821930499587965e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K23" t="n">
-        <v>4.71151892337091e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001271466513287004</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003887147666366967</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000016509963001</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004052631590029168</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P23" t="n">
-        <v>144.2003185521198</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q23" t="n">
-        <v>218.55174386908</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_22</t>
+          <t>model_4_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999974202278611</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6738660840210393</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999094241022745</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999525288707771</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999468306410308</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G24" t="n">
-        <v>1.531464182005154e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1936071807767177</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I24" t="n">
-        <v>3.650791955879236e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J24" t="n">
-        <v>5.904102067049625e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K24" t="n">
-        <v>4.777447011464431e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001278082302659732</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003913392622782889</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000016733657117</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004079993848574266</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P24" t="n">
-        <v>144.1734024109565</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.5248277279167</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_6_23</t>
+          <t>model_4_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999738863812042</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6738446482653984</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999083008679948</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999519248798726</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999461593149498</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G25" t="n">
-        <v>1.550217216678439e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1936199059672426</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I25" t="n">
-        <v>3.69606553059196e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J25" t="n">
-        <v>5.979221913702221e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K25" t="n">
-        <v>4.83776793392088e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001284207697946074</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003937279792799134</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000016938563543</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00410489794487136</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P25" t="n">
-        <v>144.1490608081304</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q25" t="n">
-        <v>218.5004861250906</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999735962682527</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6738251682955729</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999072630697694</v>
+        <v>0.7720579009814785</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999513751112088</v>
+        <v>0.555840492537803</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999945547442525</v>
+        <v>0.7483261297087673</v>
       </c>
       <c r="G26" t="n">
-        <v>1.567439574707146e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1936314701188219</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I26" t="n">
-        <v>3.737895482136753e-05</v>
+        <v>0.2715281851569437</v>
       </c>
       <c r="J26" t="n">
-        <v>6.04759800581441e-05</v>
+        <v>0.07442302943515401</v>
       </c>
       <c r="K26" t="n">
-        <v>4.892746743975582e-05</v>
+        <v>0.1729756072960488</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001289737100219031</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003959090267608389</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000017126744917</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004127636936747153</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P26" t="n">
-        <v>144.126964042039</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q26" t="n">
-        <v>218.4783893589992</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
   </sheetData>
